--- a/MongoDB_Data/DB_Schema.xlsx
+++ b/MongoDB_Data/DB_Schema.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>欄位名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,13 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>網站網址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>updateDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,9 +70,6 @@
   </si>
   <si>
     <t>decimal</t>
-  </si>
-  <si>
-    <t>decimal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -91,17 +81,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>List&lt;orders&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>訂單</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Order</t>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,6 +114,38 @@
   </si>
   <si>
     <t>訂餐內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂購者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;_order&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order_M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否結清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +170,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +186,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,7 +225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -218,6 +239,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -524,7 +548,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -535,10 +559,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -569,10 +593,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -581,19 +605,19 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
@@ -605,34 +629,46 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -651,10 +687,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>6</v>
@@ -663,19 +699,19 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2</v>
@@ -687,13 +723,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2"/>
     </row>

--- a/MongoDB_Data/DB_Schema.xlsx
+++ b/MongoDB_Data/DB_Schema.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12345"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
     <sheet name="Member" sheetId="4" r:id="rId2"/>
+    <sheet name="Restaurant" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
   <si>
     <t>欄位名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +118,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>website</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,6 +151,38 @@
   </si>
   <si>
     <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐廳菜單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restaurant_M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>網頁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜單內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;_menu&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isShow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否開放點餐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -225,7 +262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -239,6 +276,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -545,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -557,15 +597,21 @@
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -578,8 +624,20 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -590,20 +648,40 @@
         <v>6</v>
       </c>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -614,8 +692,18 @@
         <v>10</v>
       </c>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -626,8 +714,18 @@
         <v>6</v>
       </c>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -639,7 +737,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -647,91 +745,21 @@
         <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="2"/>
+      <c r="C9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -752,4 +780,167 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>